--- a/ZebrafishQuantData_Test.xlsx
+++ b/ZebrafishQuantData_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunda\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunda\Documents\Dundas-EDA-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D7671-307F-4538-8B07-CA6DF5FE2C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EF8877-3E08-42B9-9E30-AAD326CCD420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{76D9DD90-76AD-CF43-A764-F45D0099ED9C}"/>
   </bookViews>
@@ -219,6 +219,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -302,11 +305,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +627,7 @@
   <dimension ref="A1:Z95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="109" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="V81" sqref="V81"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -773,7 +776,7 @@
       <c r="S2" s="6">
         <v>0.251</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="14">
         <v>44090</v>
       </c>
       <c r="U2" s="9">
@@ -854,7 +857,7 @@
       <c r="S3" s="6">
         <v>0.26300000000000001</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="14">
         <v>44090</v>
       </c>
       <c r="U3" s="9">
@@ -935,7 +938,7 @@
       <c r="S4" s="6">
         <v>0.26600000000000001</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="14">
         <v>44090</v>
       </c>
       <c r="U4" s="9">
@@ -1016,7 +1019,7 @@
       <c r="S5" s="6">
         <v>0.26800000000000002</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="14">
         <v>44090</v>
       </c>
       <c r="U5" s="9">
@@ -1097,7 +1100,7 @@
       <c r="S6" s="6">
         <v>0.27700000000000002</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="14">
         <v>44090</v>
       </c>
       <c r="U6" s="9">
@@ -1178,7 +1181,7 @@
       <c r="S7" s="6">
         <v>0.28699999999999998</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="14">
         <v>44090</v>
       </c>
       <c r="U7" s="9">
@@ -1259,7 +1262,7 @@
       <c r="S8" s="7">
         <v>0.27400000000000002</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="14">
         <v>44090</v>
       </c>
       <c r="U8" s="9">
@@ -1340,7 +1343,7 @@
       <c r="S9" s="6">
         <v>0.252</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="14">
         <v>44090</v>
       </c>
       <c r="U9" s="9">
@@ -1421,7 +1424,7 @@
       <c r="S10" s="6">
         <v>0.27800000000000002</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="14">
         <v>44090</v>
       </c>
       <c r="U10" s="9">
@@ -1502,7 +1505,7 @@
       <c r="S11" s="6">
         <v>0.222</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="14">
         <v>44089</v>
       </c>
       <c r="U11" s="9">
@@ -1583,7 +1586,7 @@
       <c r="S12" s="6">
         <v>0.23400000000000001</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="14">
         <v>44089</v>
       </c>
       <c r="U12" s="9">
@@ -1664,7 +1667,7 @@
       <c r="S13" s="6">
         <v>0.23</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="14">
         <v>44089</v>
       </c>
       <c r="U13" s="9">
@@ -1745,7 +1748,7 @@
       <c r="S14" s="6">
         <v>0.23699999999999999</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="14">
         <v>44090</v>
       </c>
       <c r="U14" s="9">
@@ -1826,7 +1829,7 @@
       <c r="S15" s="6">
         <v>0.25700000000000001</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="14">
         <v>44090</v>
       </c>
       <c r="U15" s="9">
@@ -1907,7 +1910,7 @@
       <c r="S16" s="6">
         <v>0.26800000000000002</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="14">
         <v>44090</v>
       </c>
       <c r="U16" s="9">
@@ -1988,7 +1991,7 @@
       <c r="S17" s="6">
         <v>0.251</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="14">
         <v>44089</v>
       </c>
       <c r="U17" s="9">
@@ -2069,7 +2072,7 @@
       <c r="S18" s="6">
         <v>0.22800000000000001</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="14">
         <v>44089</v>
       </c>
       <c r="U18" s="9">
@@ -2150,7 +2153,7 @@
       <c r="S19" s="6">
         <v>0.24399999999999999</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="14">
         <v>44089</v>
       </c>
       <c r="U19" s="9">
@@ -2231,7 +2234,7 @@
       <c r="S20" s="6">
         <v>0.25900000000000001</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="14">
         <v>44096</v>
       </c>
       <c r="U20" s="9">
@@ -2312,7 +2315,7 @@
       <c r="S21" s="6">
         <v>0.22800000000000001</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="14">
         <v>44096</v>
       </c>
       <c r="U21" s="9">
@@ -2393,7 +2396,7 @@
       <c r="S22" s="6">
         <v>0.27300000000000002</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="14">
         <v>44097</v>
       </c>
       <c r="U22" s="9">
@@ -2474,7 +2477,7 @@
       <c r="S23" s="6">
         <v>0.27900000000000003</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="14">
         <v>44097</v>
       </c>
       <c r="U23" s="9">
@@ -2555,7 +2558,7 @@
       <c r="S24" s="6">
         <v>0.27300000000000002</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="14">
         <v>44097</v>
       </c>
       <c r="U24" s="9">
@@ -2636,7 +2639,7 @@
       <c r="S25" s="6">
         <v>0.28399999999999997</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="14">
         <v>44097</v>
       </c>
       <c r="U25" s="9">
@@ -2717,7 +2720,7 @@
       <c r="S26" s="6">
         <v>0.222</v>
       </c>
-      <c r="T26" s="12">
+      <c r="T26" s="14">
         <v>0.40909090909090912</v>
       </c>
       <c r="U26" s="9">
@@ -2798,7 +2801,7 @@
       <c r="S27" s="6">
         <v>0.247</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="14">
         <v>44096</v>
       </c>
       <c r="U27" s="9">
@@ -2879,7 +2882,7 @@
       <c r="S28" s="6">
         <v>0.224</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="14">
         <v>44097</v>
       </c>
       <c r="U28" s="9">
@@ -2960,7 +2963,7 @@
       <c r="S29" s="6">
         <v>0.221</v>
       </c>
-      <c r="T29" s="8">
+      <c r="T29" s="14">
         <v>44096</v>
       </c>
       <c r="U29" s="9">
@@ -3041,7 +3044,7 @@
       <c r="S30" s="6">
         <v>0.20100000000000001</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="14">
         <v>44103</v>
       </c>
       <c r="U30" s="9">
@@ -3122,7 +3125,7 @@
       <c r="S31" s="6">
         <v>0.28399999999999997</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T31" s="14">
         <v>44104</v>
       </c>
       <c r="U31" s="9">
@@ -3203,7 +3206,7 @@
       <c r="S32" s="6">
         <v>0.27600000000000002</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="14">
         <v>44104</v>
       </c>
       <c r="U32" s="9">
@@ -3284,7 +3287,7 @@
       <c r="S33" s="6">
         <v>0.29499999999999998</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T33" s="14">
         <v>44104</v>
       </c>
       <c r="U33" s="9">
@@ -3365,7 +3368,7 @@
       <c r="S34" s="6">
         <v>0.27700000000000002</v>
       </c>
-      <c r="T34" s="8">
+      <c r="T34" s="14">
         <v>44104</v>
       </c>
       <c r="U34" s="9">
@@ -3446,7 +3449,7 @@
       <c r="S35" s="6">
         <v>0.27400000000000002</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35" s="14">
         <v>44104</v>
       </c>
       <c r="U35" s="9">
@@ -3527,7 +3530,7 @@
       <c r="S36" s="6">
         <v>0.249</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T36" s="14">
         <v>44104</v>
       </c>
       <c r="U36" s="9">
@@ -3608,7 +3611,7 @@
       <c r="S37" s="6">
         <v>0.26700000000000002</v>
       </c>
-      <c r="T37" s="8">
+      <c r="T37" s="14">
         <v>44104</v>
       </c>
       <c r="U37" s="9">
@@ -3689,7 +3692,7 @@
       <c r="S38" s="6">
         <v>0.24199999999999999</v>
       </c>
-      <c r="T38" s="8">
+      <c r="T38" s="14">
         <v>44104</v>
       </c>
       <c r="U38" s="9">
@@ -3770,7 +3773,7 @@
       <c r="S39" s="6">
         <v>0.254</v>
       </c>
-      <c r="T39" s="8">
+      <c r="T39" s="14">
         <v>44103</v>
       </c>
       <c r="U39" s="9">
@@ -3851,7 +3854,7 @@
       <c r="S40" s="6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="T40" s="8">
+      <c r="T40" s="14">
         <v>44103</v>
       </c>
       <c r="U40" s="9">
@@ -3932,7 +3935,7 @@
       <c r="S41" s="6">
         <v>0.245</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T41" s="14">
         <v>44103</v>
       </c>
       <c r="U41" s="9">
@@ -4013,7 +4016,7 @@
       <c r="S42" s="6">
         <v>0.25900000000000001</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T42" s="14">
         <v>44104</v>
       </c>
       <c r="U42" s="9">
@@ -4094,7 +4097,7 @@
       <c r="S43" s="6">
         <v>0.26100000000000001</v>
       </c>
-      <c r="T43" s="8">
+      <c r="T43" s="14">
         <v>44104</v>
       </c>
       <c r="U43" s="9">
@@ -4175,7 +4178,7 @@
       <c r="S44" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T44" s="8">
+      <c r="T44" s="14">
         <v>44104</v>
       </c>
       <c r="U44" s="9">
@@ -4256,7 +4259,7 @@
       <c r="S45" s="6">
         <v>0.25900000000000001</v>
       </c>
-      <c r="T45" s="8">
+      <c r="T45" s="14">
         <v>44104</v>
       </c>
       <c r="U45" s="9">
@@ -4337,7 +4340,7 @@
       <c r="S46" s="6">
         <v>0.28199999999999997</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="14">
         <v>44104</v>
       </c>
       <c r="U46" s="9">
@@ -4418,7 +4421,7 @@
       <c r="S47" s="6">
         <v>0.25600000000000001</v>
       </c>
-      <c r="T47" s="8">
+      <c r="T47" s="14">
         <v>44104</v>
       </c>
       <c r="U47" s="9">
@@ -4499,7 +4502,7 @@
       <c r="S48" s="6">
         <v>0.246</v>
       </c>
-      <c r="T48" s="8">
+      <c r="T48" s="14">
         <v>44110</v>
       </c>
       <c r="U48" s="9">
@@ -4580,7 +4583,7 @@
       <c r="S49" s="6">
         <v>0.23200000000000001</v>
       </c>
-      <c r="T49" s="8">
+      <c r="T49" s="14">
         <v>44110</v>
       </c>
       <c r="U49" s="9">
@@ -4661,7 +4664,7 @@
       <c r="S50" s="6">
         <v>0.24</v>
       </c>
-      <c r="T50" s="8">
+      <c r="T50" s="14">
         <v>44110</v>
       </c>
       <c r="U50" s="9">
@@ -4742,7 +4745,7 @@
       <c r="S51" s="6">
         <v>0.249</v>
       </c>
-      <c r="T51" s="8">
+      <c r="T51" s="14">
         <v>44110</v>
       </c>
       <c r="U51" s="9">
@@ -4823,7 +4826,7 @@
       <c r="S52" s="6">
         <v>0.23899999999999999</v>
       </c>
-      <c r="T52" s="8">
+      <c r="T52" s="14">
         <v>44110</v>
       </c>
       <c r="U52" s="9">
@@ -4904,7 +4907,7 @@
       <c r="S53" s="6">
         <v>0.26</v>
       </c>
-      <c r="T53" s="8">
+      <c r="T53" s="14">
         <v>44110</v>
       </c>
       <c r="U53" s="9">
@@ -4985,7 +4988,7 @@
       <c r="S54" s="6">
         <v>0.22700000000000001</v>
       </c>
-      <c r="T54" s="13">
+      <c r="T54" s="15">
         <v>44110</v>
       </c>
       <c r="U54" s="9">
@@ -5066,7 +5069,7 @@
       <c r="S55" s="6">
         <v>0.217</v>
       </c>
-      <c r="T55" s="13">
+      <c r="T55" s="15">
         <v>44110</v>
       </c>
       <c r="U55" s="9">
@@ -5147,7 +5150,7 @@
       <c r="S56" s="6">
         <v>0.247</v>
       </c>
-      <c r="T56" s="13">
+      <c r="T56" s="15">
         <v>44110</v>
       </c>
       <c r="U56" s="9">
@@ -5228,7 +5231,7 @@
       <c r="S57" s="6">
         <v>0.253</v>
       </c>
-      <c r="T57" s="13">
+      <c r="T57" s="15">
         <v>44110</v>
       </c>
       <c r="U57" s="9">
@@ -5309,7 +5312,7 @@
       <c r="S58" s="6">
         <v>0.20899999999999999</v>
       </c>
-      <c r="T58" s="13">
+      <c r="T58" s="15">
         <v>44110</v>
       </c>
       <c r="U58" s="9">
@@ -5390,7 +5393,7 @@
       <c r="S59" s="6">
         <v>0.21299999999999999</v>
       </c>
-      <c r="T59" s="13">
+      <c r="T59" s="15">
         <v>44110</v>
       </c>
       <c r="U59" s="9">
@@ -5471,7 +5474,7 @@
       <c r="S60" s="6">
         <v>0.25700000000000001</v>
       </c>
-      <c r="T60" s="8">
+      <c r="T60" s="14">
         <v>44111</v>
       </c>
       <c r="U60" s="9">
@@ -5552,7 +5555,7 @@
       <c r="S61" s="6">
         <v>0.26500000000000001</v>
       </c>
-      <c r="T61" s="8">
+      <c r="T61" s="14">
         <v>44120</v>
       </c>
       <c r="U61" s="9">
@@ -5633,7 +5636,7 @@
       <c r="S62" s="6">
         <v>0.28100000000000003</v>
       </c>
-      <c r="T62" s="8">
+      <c r="T62" s="14">
         <v>44120</v>
       </c>
       <c r="U62" s="9">
@@ -5714,7 +5717,7 @@
       <c r="S63" s="6">
         <v>0.26100000000000001</v>
       </c>
-      <c r="T63" s="8">
+      <c r="T63" s="14">
         <v>44120</v>
       </c>
       <c r="U63" s="9">
@@ -5795,7 +5798,7 @@
       <c r="S64" s="6">
         <v>0.246</v>
       </c>
-      <c r="T64" s="8">
+      <c r="T64" s="14">
         <v>44119</v>
       </c>
       <c r="U64" s="9">
@@ -5876,7 +5879,7 @@
       <c r="S65" s="6">
         <v>0.25800000000000001</v>
       </c>
-      <c r="T65" s="8">
+      <c r="T65" s="14">
         <v>44120</v>
       </c>
       <c r="U65" s="9">
@@ -5957,7 +5960,7 @@
       <c r="S66" s="6">
         <v>0.27200000000000002</v>
       </c>
-      <c r="T66" s="8">
+      <c r="T66" s="14">
         <v>44120</v>
       </c>
       <c r="U66" s="9">
@@ -6038,7 +6041,7 @@
       <c r="S67" s="6">
         <v>0.26300000000000001</v>
       </c>
-      <c r="T67" s="8">
+      <c r="T67" s="14">
         <v>44120</v>
       </c>
       <c r="U67" s="9">
@@ -6119,7 +6122,7 @@
       <c r="S68" s="6">
         <v>0.28699999999999998</v>
       </c>
-      <c r="T68" s="8">
+      <c r="T68" s="14">
         <v>44120</v>
       </c>
       <c r="U68" s="9">
@@ -6200,7 +6203,7 @@
       <c r="S69" s="6">
         <v>0.26100000000000001</v>
       </c>
-      <c r="T69" s="8">
+      <c r="T69" s="14">
         <v>44120</v>
       </c>
       <c r="U69" s="9">
@@ -6281,7 +6284,7 @@
       <c r="S70" s="6">
         <v>0.27700000000000002</v>
       </c>
-      <c r="T70" s="8">
+      <c r="T70" s="14">
         <v>44120</v>
       </c>
       <c r="U70" s="9">
@@ -6362,7 +6365,7 @@
       <c r="S71" s="6">
         <v>0.27100000000000002</v>
       </c>
-      <c r="T71" s="8">
+      <c r="T71" s="14">
         <v>44120</v>
       </c>
       <c r="U71" s="9">
@@ -6443,7 +6446,7 @@
       <c r="S72" s="6">
         <v>0.27300000000000002</v>
       </c>
-      <c r="T72" s="8">
+      <c r="T72" s="14">
         <v>44120</v>
       </c>
       <c r="U72" s="9">
@@ -6524,7 +6527,7 @@
       <c r="S73" s="6">
         <v>0.25800000000000001</v>
       </c>
-      <c r="T73" s="8">
+      <c r="T73" s="14">
         <v>44120</v>
       </c>
       <c r="U73" s="9">
@@ -6605,7 +6608,7 @@
       <c r="S74" s="6">
         <v>0.26100000000000001</v>
       </c>
-      <c r="T74" s="8">
+      <c r="T74" s="14">
         <v>44120</v>
       </c>
       <c r="U74" s="9">
@@ -6686,7 +6689,7 @@
       <c r="S75" s="6">
         <v>0.27100000000000002</v>
       </c>
-      <c r="T75" s="8">
+      <c r="T75" s="14">
         <v>44120</v>
       </c>
       <c r="U75" s="9">
@@ -6767,7 +6770,7 @@
       <c r="S76" s="6">
         <v>0.22600000000000001</v>
       </c>
-      <c r="T76" s="8">
+      <c r="T76" s="14">
         <v>44120</v>
       </c>
       <c r="U76" s="9">
@@ -6869,7 +6872,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11376,7 +11379,7 @@
       <c r="W60" s="10">
         <v>3.0630000000000002</v>
       </c>
-      <c r="X60" s="14">
+      <c r="X60" s="12">
         <v>4.008</v>
       </c>
     </row>
@@ -11448,10 +11451,10 @@
       <c r="V61" s="9">
         <v>48</v>
       </c>
-      <c r="W61" s="14">
+      <c r="W61" s="12">
         <v>0.69010000000000005</v>
       </c>
-      <c r="X61" s="14">
+      <c r="X61" s="12">
         <v>1.1439999999999999</v>
       </c>
     </row>
@@ -11526,7 +11529,7 @@
       <c r="W62" s="10">
         <v>4.6239999999999997</v>
       </c>
-      <c r="X62" s="14">
+      <c r="X62" s="12">
         <v>5.4130000000000003</v>
       </c>
     </row>
@@ -11598,10 +11601,10 @@
       <c r="V63" s="9">
         <v>48</v>
       </c>
-      <c r="W63" s="14">
+      <c r="W63" s="12">
         <v>4.5529999999999999</v>
       </c>
-      <c r="X63" s="14">
+      <c r="X63" s="12">
         <v>5.19</v>
       </c>
     </row>
@@ -11673,10 +11676,10 @@
       <c r="V64" s="9">
         <v>48</v>
       </c>
-      <c r="W64" s="14">
+      <c r="W64" s="12">
         <v>3.3690000000000002</v>
       </c>
-      <c r="X64" s="14">
+      <c r="X64" s="12">
         <v>4.8940000000000001</v>
       </c>
     </row>
@@ -11748,10 +11751,10 @@
       <c r="V65" s="9">
         <v>57</v>
       </c>
-      <c r="W65" s="14">
+      <c r="W65" s="12">
         <v>3.3879999999999999</v>
       </c>
-      <c r="X65" s="14">
+      <c r="X65" s="12">
         <v>5.3559999999999999</v>
       </c>
     </row>
@@ -11823,10 +11826,10 @@
       <c r="V66" s="9">
         <v>48</v>
       </c>
-      <c r="W66" s="14">
+      <c r="W66" s="12">
         <v>0.44619999999999999</v>
       </c>
-      <c r="X66" s="14">
+      <c r="X66" s="12">
         <v>0.60589999999999999</v>
       </c>
     </row>
@@ -11898,10 +11901,10 @@
       <c r="V67" s="9">
         <v>48</v>
       </c>
-      <c r="W67" s="14">
+      <c r="W67" s="12">
         <v>4.2089999999999996</v>
       </c>
-      <c r="X67" s="14">
+      <c r="X67" s="12">
         <v>4.4340000000000002</v>
       </c>
     </row>
@@ -11973,10 +11976,10 @@
       <c r="V68" s="9">
         <v>57</v>
       </c>
-      <c r="W68" s="14">
+      <c r="W68" s="12">
         <v>5.5270000000000001</v>
       </c>
-      <c r="X68" s="14">
+      <c r="X68" s="12">
         <v>6.875</v>
       </c>
     </row>
@@ -12048,10 +12051,10 @@
       <c r="V69" s="9">
         <v>70</v>
       </c>
-      <c r="W69" s="14">
+      <c r="W69" s="12">
         <v>3.8170000000000002</v>
       </c>
-      <c r="X69" s="14">
+      <c r="X69" s="12">
         <v>6.1950000000000003</v>
       </c>
     </row>
@@ -12123,10 +12126,10 @@
       <c r="V70" s="9">
         <v>70</v>
       </c>
-      <c r="W70" s="14">
+      <c r="W70" s="12">
         <v>5.4139999999999997</v>
       </c>
-      <c r="X70" s="14">
+      <c r="X70" s="12">
         <v>6.7510000000000003</v>
       </c>
     </row>
@@ -12195,13 +12198,13 @@
       <c r="U71" s="8">
         <v>44286</v>
       </c>
-      <c r="V71" s="15">
+      <c r="V71" s="13">
         <v>48</v>
       </c>
-      <c r="W71" s="14">
+      <c r="W71" s="12">
         <v>2.62</v>
       </c>
-      <c r="X71" s="14">
+      <c r="X71" s="12">
         <v>3.641</v>
       </c>
     </row>
@@ -12270,13 +12273,13 @@
       <c r="U72" s="8">
         <v>44286</v>
       </c>
-      <c r="V72" s="15">
+      <c r="V72" s="13">
         <v>48</v>
       </c>
-      <c r="W72" s="14">
+      <c r="W72" s="12">
         <v>3.5840000000000001</v>
       </c>
-      <c r="X72" s="14">
+      <c r="X72" s="12">
         <v>5.9989999999999997</v>
       </c>
     </row>
@@ -12345,13 +12348,13 @@
       <c r="U73" s="8">
         <v>44286</v>
       </c>
-      <c r="V73" s="15">
+      <c r="V73" s="13">
         <v>48</v>
       </c>
-      <c r="W73" s="14">
+      <c r="W73" s="12">
         <v>1.101</v>
       </c>
-      <c r="X73" s="14">
+      <c r="X73" s="12">
         <v>2.4289999999999998</v>
       </c>
     </row>
@@ -12420,13 +12423,13 @@
       <c r="U74" s="8">
         <v>44286</v>
       </c>
-      <c r="V74" s="15">
+      <c r="V74" s="13">
         <v>44</v>
       </c>
-      <c r="W74" s="14">
+      <c r="W74" s="12">
         <v>1.365</v>
       </c>
-      <c r="X74" s="14">
+      <c r="X74" s="12">
         <v>2.2570000000000001</v>
       </c>
     </row>
@@ -12495,13 +12498,13 @@
       <c r="U75" s="8">
         <v>44286</v>
       </c>
-      <c r="V75" s="15">
+      <c r="V75" s="13">
         <v>44</v>
       </c>
-      <c r="W75" s="14">
+      <c r="W75" s="12">
         <v>1.292</v>
       </c>
-      <c r="X75" s="14">
+      <c r="X75" s="12">
         <v>2.669</v>
       </c>
     </row>
@@ -12570,13 +12573,13 @@
       <c r="U76" s="8">
         <v>44286</v>
       </c>
-      <c r="V76" s="15">
+      <c r="V76" s="13">
         <v>44</v>
       </c>
-      <c r="W76" s="14">
+      <c r="W76" s="12">
         <v>3.3660000000000001</v>
       </c>
-      <c r="X76" s="14">
+      <c r="X76" s="12">
         <v>3.544</v>
       </c>
     </row>
@@ -12645,13 +12648,13 @@
       <c r="U77" s="8">
         <v>44286</v>
       </c>
-      <c r="V77" s="15">
+      <c r="V77" s="13">
         <v>44</v>
       </c>
-      <c r="W77" s="14">
+      <c r="W77" s="12">
         <v>0.58420000000000005</v>
       </c>
-      <c r="X77" s="14">
+      <c r="X77" s="12">
         <v>2.4929999999999999</v>
       </c>
     </row>
@@ -12720,13 +12723,13 @@
       <c r="U78" s="8">
         <v>44286</v>
       </c>
-      <c r="V78" s="15">
+      <c r="V78" s="13">
         <v>44</v>
       </c>
-      <c r="W78" s="14">
+      <c r="W78" s="12">
         <v>1.395</v>
       </c>
-      <c r="X78" s="14">
+      <c r="X78" s="12">
         <v>1.8580000000000001</v>
       </c>
     </row>
@@ -12795,13 +12798,13 @@
       <c r="U79" s="8">
         <v>44286</v>
       </c>
-      <c r="V79" s="15">
+      <c r="V79" s="13">
         <v>48</v>
       </c>
-      <c r="W79" s="14">
+      <c r="W79" s="12">
         <v>2.0049999999999999</v>
       </c>
-      <c r="X79" s="14">
+      <c r="X79" s="12">
         <v>3.552</v>
       </c>
     </row>
@@ -12870,13 +12873,13 @@
       <c r="U80" s="8">
         <v>44286</v>
       </c>
-      <c r="V80" s="15">
+      <c r="V80" s="13">
         <v>48</v>
       </c>
-      <c r="W80" s="14">
+      <c r="W80" s="12">
         <v>1.67</v>
       </c>
-      <c r="X80" s="14">
+      <c r="X80" s="12">
         <v>2.992</v>
       </c>
     </row>
@@ -12945,13 +12948,13 @@
       <c r="U81" s="8">
         <v>44286</v>
       </c>
-      <c r="V81" s="15">
+      <c r="V81" s="13">
         <v>48</v>
       </c>
-      <c r="W81" s="14">
+      <c r="W81" s="12">
         <v>2.2639999999999998</v>
       </c>
-      <c r="X81" s="14">
+      <c r="X81" s="12">
         <v>2.9079999999999999</v>
       </c>
     </row>
@@ -13020,13 +13023,13 @@
       <c r="U82" s="8">
         <v>44286</v>
       </c>
-      <c r="V82" s="15">
+      <c r="V82" s="13">
         <v>44</v>
       </c>
-      <c r="W82" s="14">
+      <c r="W82" s="12">
         <v>2.2069999999999999</v>
       </c>
-      <c r="X82" s="14">
+      <c r="X82" s="12">
         <v>5.327</v>
       </c>
     </row>
@@ -13095,13 +13098,13 @@
       <c r="U83" s="8">
         <v>44286</v>
       </c>
-      <c r="V83" s="15">
+      <c r="V83" s="13">
         <v>48</v>
       </c>
-      <c r="W83" s="14">
+      <c r="W83" s="12">
         <v>3.55</v>
       </c>
-      <c r="X83" s="14">
+      <c r="X83" s="12">
         <v>5.4409999999999998</v>
       </c>
     </row>
@@ -13170,13 +13173,13 @@
       <c r="U84" s="8">
         <v>44286</v>
       </c>
-      <c r="V84" s="15">
+      <c r="V84" s="13">
         <v>48</v>
       </c>
-      <c r="W84" s="14">
+      <c r="W84" s="12">
         <v>4.7569999999999997</v>
       </c>
-      <c r="X84" s="14">
+      <c r="X84" s="12">
         <v>3.867</v>
       </c>
     </row>
@@ -13245,13 +13248,13 @@
       <c r="U85" s="8">
         <v>44286</v>
       </c>
-      <c r="V85" s="15">
+      <c r="V85" s="13">
         <v>44</v>
       </c>
-      <c r="W85" s="14">
+      <c r="W85" s="12">
         <v>3.6259999999999999</v>
       </c>
-      <c r="X85" s="14">
+      <c r="X85" s="12">
         <v>5.3250000000000002</v>
       </c>
     </row>
@@ -13320,13 +13323,13 @@
       <c r="U86" s="8">
         <v>44286</v>
       </c>
-      <c r="V86" s="15">
+      <c r="V86" s="13">
         <v>44</v>
       </c>
-      <c r="W86" s="14">
+      <c r="W86" s="12">
         <v>3.931</v>
       </c>
-      <c r="X86" s="14">
+      <c r="X86" s="12">
         <v>6.0659999999999998</v>
       </c>
     </row>
@@ -13395,13 +13398,13 @@
       <c r="U87" s="8">
         <v>44286</v>
       </c>
-      <c r="V87" s="15">
+      <c r="V87" s="13">
         <v>44</v>
       </c>
-      <c r="W87" s="14">
+      <c r="W87" s="12">
         <v>1.4630000000000001</v>
       </c>
-      <c r="X87" s="14">
+      <c r="X87" s="12">
         <v>2.0710000000000002</v>
       </c>
     </row>
@@ -13470,13 +13473,13 @@
       <c r="U88" s="8">
         <v>44286</v>
       </c>
-      <c r="V88" s="15">
+      <c r="V88" s="13">
         <v>48</v>
       </c>
-      <c r="W88" s="14">
+      <c r="W88" s="12">
         <v>2.4209999999999998</v>
       </c>
-      <c r="X88" s="14">
+      <c r="X88" s="12">
         <v>4.6580000000000004</v>
       </c>
     </row>
@@ -13545,13 +13548,13 @@
       <c r="U89" s="8">
         <v>44286</v>
       </c>
-      <c r="V89" s="15">
+      <c r="V89" s="13">
         <v>53</v>
       </c>
-      <c r="W89" s="14">
+      <c r="W89" s="12">
         <v>4.9720000000000004</v>
       </c>
-      <c r="X89" s="14">
+      <c r="X89" s="12">
         <v>6.7359999999999998</v>
       </c>
     </row>
@@ -13620,13 +13623,13 @@
       <c r="U90" s="8">
         <v>44286</v>
       </c>
-      <c r="V90" s="15">
+      <c r="V90" s="13">
         <v>53</v>
       </c>
-      <c r="W90" s="14">
+      <c r="W90" s="12">
         <v>4.399</v>
       </c>
-      <c r="X90" s="14">
+      <c r="X90" s="12">
         <v>5.5750000000000002</v>
       </c>
     </row>
@@ -13695,13 +13698,13 @@
       <c r="U91" s="8">
         <v>44292</v>
       </c>
-      <c r="V91" s="15">
+      <c r="V91" s="13">
         <v>33</v>
       </c>
-      <c r="W91" s="14">
+      <c r="W91" s="12">
         <v>0.66190000000000004</v>
       </c>
-      <c r="X91" s="14">
+      <c r="X91" s="12">
         <v>0.68630000000000002</v>
       </c>
     </row>
@@ -13770,13 +13773,13 @@
       <c r="U92" s="8">
         <v>44294</v>
       </c>
-      <c r="V92" s="15">
+      <c r="V92" s="13">
         <v>68</v>
       </c>
-      <c r="W92" s="14">
+      <c r="W92" s="12">
         <v>1.667</v>
       </c>
-      <c r="X92" s="14">
+      <c r="X92" s="12">
         <v>3.67</v>
       </c>
     </row>
@@ -13845,13 +13848,13 @@
       <c r="U93" s="8">
         <v>44293</v>
       </c>
-      <c r="V93" s="15">
+      <c r="V93" s="13">
         <v>68</v>
       </c>
-      <c r="W93" s="14">
+      <c r="W93" s="12">
         <v>4.1289999999999996</v>
       </c>
-      <c r="X93" s="14">
+      <c r="X93" s="12">
         <v>6.1059999999999999</v>
       </c>
     </row>
@@ -13920,13 +13923,13 @@
       <c r="U94" s="8">
         <v>44293</v>
       </c>
-      <c r="V94" s="15">
+      <c r="V94" s="13">
         <v>48</v>
       </c>
-      <c r="W94" s="14">
+      <c r="W94" s="12">
         <v>1.8260000000000001</v>
       </c>
-      <c r="X94" s="14">
+      <c r="X94" s="12">
         <v>4.3559999999999999</v>
       </c>
     </row>
@@ -13995,13 +13998,13 @@
       <c r="U95" s="8">
         <v>44293</v>
       </c>
-      <c r="V95" s="15">
+      <c r="V95" s="13">
         <v>53</v>
       </c>
-      <c r="W95" s="14">
+      <c r="W95" s="12">
         <v>0</v>
       </c>
-      <c r="X95" s="14">
+      <c r="X95" s="12">
         <v>0</v>
       </c>
     </row>
@@ -14067,16 +14070,16 @@
       <c r="T96" s="6">
         <v>0.3</v>
       </c>
-      <c r="U96" s="13">
+      <c r="U96" s="11">
         <v>44293</v>
       </c>
-      <c r="V96" s="15">
+      <c r="V96" s="13">
         <v>57</v>
       </c>
-      <c r="W96" s="14">
+      <c r="W96" s="12">
         <v>4.6500000000000004</v>
       </c>
-      <c r="X96" s="14">
+      <c r="X96" s="12">
         <v>6.843</v>
       </c>
     </row>
@@ -14145,13 +14148,13 @@
       <c r="U97" s="8">
         <v>44294</v>
       </c>
-      <c r="V97" s="15">
+      <c r="V97" s="13">
         <v>68</v>
       </c>
-      <c r="W97" s="14">
+      <c r="W97" s="12">
         <v>4.3659999999999997</v>
       </c>
-      <c r="X97" s="14">
+      <c r="X97" s="12">
         <v>6.6970000000000001</v>
       </c>
     </row>
@@ -14217,16 +14220,16 @@
       <c r="T98" s="6">
         <v>0.26600000000000001</v>
       </c>
-      <c r="U98" s="13">
+      <c r="U98" s="11">
         <v>44293</v>
       </c>
-      <c r="V98" s="15">
+      <c r="V98" s="13">
         <v>48</v>
       </c>
-      <c r="W98" s="14">
+      <c r="W98" s="12">
         <v>3.36</v>
       </c>
-      <c r="X98" s="14">
+      <c r="X98" s="12">
         <v>4.7839999999999998</v>
       </c>
     </row>
@@ -14295,13 +14298,13 @@
       <c r="U99" s="8">
         <v>44293</v>
       </c>
-      <c r="V99" s="15">
+      <c r="V99" s="13">
         <v>48</v>
       </c>
-      <c r="W99" s="14">
+      <c r="W99" s="12">
         <v>2.2330000000000001</v>
       </c>
-      <c r="X99" s="14">
+      <c r="X99" s="12">
         <v>4.4880000000000004</v>
       </c>
     </row>
@@ -14370,13 +14373,13 @@
       <c r="U100" s="8">
         <v>44293</v>
       </c>
-      <c r="V100" s="15">
+      <c r="V100" s="13">
         <v>53</v>
       </c>
-      <c r="W100" s="14">
+      <c r="W100" s="12">
         <v>0.56140000000000001</v>
       </c>
-      <c r="X100" s="14">
+      <c r="X100" s="12">
         <v>1.099</v>
       </c>
     </row>
@@ -14445,13 +14448,13 @@
       <c r="U101" s="8">
         <v>44293</v>
       </c>
-      <c r="V101" s="15">
+      <c r="V101" s="13">
         <v>48</v>
       </c>
-      <c r="W101" s="14">
+      <c r="W101" s="12">
         <v>2.0249999999999999</v>
       </c>
-      <c r="X101" s="14">
+      <c r="X101" s="12">
         <v>3.8119999999999998</v>
       </c>
     </row>
@@ -14520,13 +14523,13 @@
       <c r="U102" s="8">
         <v>44293</v>
       </c>
-      <c r="V102" s="15">
+      <c r="V102" s="13">
         <v>48</v>
       </c>
-      <c r="W102" s="14">
+      <c r="W102" s="12">
         <v>2.0760000000000001</v>
       </c>
-      <c r="X102" s="14">
+      <c r="X102" s="12">
         <v>4.2050000000000001</v>
       </c>
     </row>
@@ -14595,13 +14598,13 @@
       <c r="U103" s="8">
         <v>44293</v>
       </c>
-      <c r="V103" s="15">
+      <c r="V103" s="13">
         <v>53</v>
       </c>
-      <c r="W103" s="14">
+      <c r="W103" s="12">
         <v>5.2270000000000003</v>
       </c>
-      <c r="X103" s="14">
+      <c r="X103" s="12">
         <v>6.9569999999999999</v>
       </c>
     </row>
@@ -14670,13 +14673,13 @@
       <c r="U104" s="8">
         <v>44293</v>
       </c>
-      <c r="V104" s="15">
+      <c r="V104" s="13">
         <v>53</v>
       </c>
-      <c r="W104" s="14">
+      <c r="W104" s="12">
         <v>5.1769999999999996</v>
       </c>
-      <c r="X104" s="14">
+      <c r="X104" s="12">
         <v>6.8239999999999998</v>
       </c>
     </row>
@@ -14745,13 +14748,13 @@
       <c r="U105" s="8">
         <v>44293</v>
       </c>
-      <c r="V105" s="15">
+      <c r="V105" s="13">
         <v>57</v>
       </c>
-      <c r="W105" s="14">
+      <c r="W105" s="12">
         <v>4.21</v>
       </c>
-      <c r="X105" s="14">
+      <c r="X105" s="12">
         <v>6.61</v>
       </c>
     </row>
@@ -14820,13 +14823,13 @@
       <c r="U106" s="8">
         <v>44293</v>
       </c>
-      <c r="V106" s="15">
+      <c r="V106" s="13">
         <v>48</v>
       </c>
-      <c r="W106" s="14">
+      <c r="W106" s="12">
         <v>4.5679999999999996</v>
       </c>
-      <c r="X106" s="14">
+      <c r="X106" s="12">
         <v>6.1280000000000001</v>
       </c>
     </row>
@@ -14895,13 +14898,13 @@
       <c r="U107" s="8">
         <v>44293</v>
       </c>
-      <c r="V107" s="15">
+      <c r="V107" s="13">
         <v>48</v>
       </c>
-      <c r="W107" s="14">
+      <c r="W107" s="12">
         <v>5.5019999999999998</v>
       </c>
-      <c r="X107" s="14">
+      <c r="X107" s="12">
         <v>6.8559999999999999</v>
       </c>
     </row>
@@ -14970,13 +14973,13 @@
       <c r="U108" s="8">
         <v>44293</v>
       </c>
-      <c r="V108" s="15">
+      <c r="V108" s="13">
         <v>48</v>
       </c>
-      <c r="W108" s="14">
+      <c r="W108" s="12">
         <v>1.292</v>
       </c>
-      <c r="X108" s="14">
+      <c r="X108" s="12">
         <v>2.5720000000000001</v>
       </c>
     </row>
@@ -15045,13 +15048,13 @@
       <c r="U109" s="8">
         <v>44300</v>
       </c>
-      <c r="V109" s="15">
+      <c r="V109" s="13">
         <v>53</v>
       </c>
-      <c r="W109" s="14">
+      <c r="W109" s="12">
         <v>2.117</v>
       </c>
-      <c r="X109" s="14">
+      <c r="X109" s="12">
         <v>4.4029999999999996</v>
       </c>
     </row>
@@ -15120,13 +15123,13 @@
       <c r="U110" s="8">
         <v>44301</v>
       </c>
-      <c r="V110" s="15">
+      <c r="V110" s="13">
         <v>70</v>
       </c>
-      <c r="W110" s="14">
+      <c r="W110" s="12">
         <v>2.0950000000000002</v>
       </c>
-      <c r="X110" s="14">
+      <c r="X110" s="12">
         <v>3.7040000000000002</v>
       </c>
     </row>
@@ -15195,13 +15198,13 @@
       <c r="U111" s="8">
         <v>44300</v>
       </c>
-      <c r="V111" s="15">
+      <c r="V111" s="13">
         <v>48</v>
       </c>
-      <c r="W111" s="14">
+      <c r="W111" s="12">
         <v>3.5760000000000001</v>
       </c>
-      <c r="X111" s="14">
+      <c r="X111" s="12">
         <v>5.0339999999999998</v>
       </c>
     </row>
@@ -15270,13 +15273,13 @@
       <c r="U112" s="8">
         <v>44300</v>
       </c>
-      <c r="V112" s="15">
+      <c r="V112" s="13">
         <v>53</v>
       </c>
-      <c r="W112" s="14">
+      <c r="W112" s="12">
         <v>3.4089999999999998</v>
       </c>
-      <c r="X112" s="14">
+      <c r="X112" s="12">
         <v>5.74</v>
       </c>
     </row>
@@ -15345,13 +15348,13 @@
       <c r="U113" s="8">
         <v>44300</v>
       </c>
-      <c r="V113" s="15">
+      <c r="V113" s="13">
         <v>44</v>
       </c>
-      <c r="W113" s="14">
+      <c r="W113" s="12">
         <v>4.4189999999999996</v>
       </c>
-      <c r="X113" s="14">
+      <c r="X113" s="12">
         <v>6.4660000000000002</v>
       </c>
     </row>
@@ -15420,13 +15423,13 @@
       <c r="U114" s="8">
         <v>44300</v>
       </c>
-      <c r="V114" s="15">
+      <c r="V114" s="13">
         <v>48</v>
       </c>
-      <c r="W114" s="14">
+      <c r="W114" s="12">
         <v>3.1139999999999999</v>
       </c>
-      <c r="X114" s="14">
+      <c r="X114" s="12">
         <v>3.9870000000000001</v>
       </c>
     </row>
@@ -15498,10 +15501,10 @@
       <c r="V115" s="9">
         <v>53</v>
       </c>
-      <c r="W115" s="14">
+      <c r="W115" s="12">
         <v>3.77</v>
       </c>
-      <c r="X115" s="14">
+      <c r="X115" s="12">
         <v>5.5780000000000003</v>
       </c>
     </row>
@@ -15573,10 +15576,10 @@
       <c r="V116" s="9">
         <v>53</v>
       </c>
-      <c r="W116" s="14">
+      <c r="W116" s="12">
         <v>5.883</v>
       </c>
-      <c r="X116" s="14">
+      <c r="X116" s="12">
         <v>6.7960000000000003</v>
       </c>
     </row>
@@ -15648,10 +15651,10 @@
       <c r="V117" s="9">
         <v>53</v>
       </c>
-      <c r="W117" s="14">
+      <c r="W117" s="12">
         <v>4.718</v>
       </c>
-      <c r="X117" s="14">
+      <c r="X117" s="12">
         <v>6.0049999999999999</v>
       </c>
     </row>
@@ -15723,10 +15726,10 @@
       <c r="V118" s="9">
         <v>53</v>
       </c>
-      <c r="W118" s="14">
+      <c r="W118" s="12">
         <v>4.6230000000000002</v>
       </c>
-      <c r="X118" s="14">
+      <c r="X118" s="12">
         <v>5.9640000000000004</v>
       </c>
     </row>
@@ -15798,10 +15801,10 @@
       <c r="V119" s="9">
         <v>53</v>
       </c>
-      <c r="W119" s="14">
+      <c r="W119" s="12">
         <v>4.0590000000000002</v>
       </c>
-      <c r="X119" s="14">
+      <c r="X119" s="12">
         <v>5.8780000000000001</v>
       </c>
     </row>
